--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>76.91931719660739</v>
+        <v>77.88937866666667</v>
       </c>
       <c r="H2">
-        <v>76.91931719660739</v>
+        <v>233.668136</v>
       </c>
       <c r="I2">
-        <v>0.1228093678141825</v>
+        <v>0.117745379143944</v>
       </c>
       <c r="J2">
-        <v>0.1228093678141825</v>
+        <v>0.117745379143944</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>12469.27523416461</v>
+        <v>12751.42481789978</v>
       </c>
       <c r="R2">
-        <v>12469.27523416461</v>
+        <v>114762.823361098</v>
       </c>
       <c r="S2">
-        <v>0.03378653157173445</v>
+        <v>0.03242711347459924</v>
       </c>
       <c r="T2">
-        <v>0.03378653157173445</v>
+        <v>0.03242711347459924</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>76.91931719660739</v>
+        <v>77.88937866666667</v>
       </c>
       <c r="H3">
-        <v>76.91931719660739</v>
+        <v>233.668136</v>
       </c>
       <c r="I3">
-        <v>0.1228093678141825</v>
+        <v>0.117745379143944</v>
       </c>
       <c r="J3">
-        <v>0.1228093678141825</v>
+        <v>0.117745379143944</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>13272.81482849571</v>
+        <v>13440.47411498386</v>
       </c>
       <c r="R3">
-        <v>13272.81482849571</v>
+        <v>120964.2670348548</v>
       </c>
       <c r="S3">
-        <v>0.03596378849831358</v>
+        <v>0.03417937881476526</v>
       </c>
       <c r="T3">
-        <v>0.03596378849831358</v>
+        <v>0.03417937881476526</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>76.91931719660739</v>
+        <v>77.88937866666667</v>
       </c>
       <c r="H4">
-        <v>76.91931719660739</v>
+        <v>233.668136</v>
       </c>
       <c r="I4">
-        <v>0.1228093678141825</v>
+        <v>0.117745379143944</v>
       </c>
       <c r="J4">
-        <v>0.1228093678141825</v>
+        <v>0.117745379143944</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>8558.642512018012</v>
+        <v>8683.743848610562</v>
       </c>
       <c r="R4">
-        <v>8558.642512018012</v>
+        <v>78153.69463749505</v>
       </c>
       <c r="S4">
-        <v>0.02319034907908649</v>
+        <v>0.02208292415824531</v>
       </c>
       <c r="T4">
-        <v>0.02319034907908649</v>
+        <v>0.02208292415824531</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>76.91931719660739</v>
+        <v>77.88937866666667</v>
       </c>
       <c r="H5">
-        <v>76.91931719660739</v>
+        <v>233.668136</v>
       </c>
       <c r="I5">
-        <v>0.1228093678141825</v>
+        <v>0.117745379143944</v>
       </c>
       <c r="J5">
-        <v>0.1228093678141825</v>
+        <v>0.117745379143944</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>6636.187129978503</v>
+        <v>6773.103214050311</v>
       </c>
       <c r="R5">
-        <v>6636.187129978503</v>
+        <v>60957.92892645279</v>
       </c>
       <c r="S5">
-        <v>0.01798129737072709</v>
+        <v>0.0172241290392015</v>
       </c>
       <c r="T5">
-        <v>0.01798129737072709</v>
+        <v>0.0172241290392015</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>76.91931719660739</v>
+        <v>77.88937866666667</v>
       </c>
       <c r="H6">
-        <v>76.91931719660739</v>
+        <v>233.668136</v>
       </c>
       <c r="I6">
-        <v>0.1228093678141825</v>
+        <v>0.117745379143944</v>
       </c>
       <c r="J6">
-        <v>0.1228093678141825</v>
+        <v>0.117745379143944</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>4387.170616881478</v>
+        <v>4652.672445082248</v>
       </c>
       <c r="R6">
-        <v>4387.170616881478</v>
+        <v>41874.05200574023</v>
       </c>
       <c r="S6">
-        <v>0.01188740129432089</v>
+        <v>0.01183183365713265</v>
       </c>
       <c r="T6">
-        <v>0.01188740129432089</v>
+        <v>0.01183183365713265</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>220.645635107565</v>
+        <v>221.6758116666666</v>
       </c>
       <c r="H7">
-        <v>220.645635107565</v>
+        <v>665.027435</v>
       </c>
       <c r="I7">
-        <v>0.3522827807903891</v>
+        <v>0.3351073399036296</v>
       </c>
       <c r="J7">
-        <v>0.3522827807903891</v>
+        <v>0.3351073399036297</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>35768.53323256788</v>
+        <v>36290.98722832809</v>
       </c>
       <c r="R7">
-        <v>35768.53323256788</v>
+        <v>326618.8850549528</v>
       </c>
       <c r="S7">
-        <v>0.09691779631470714</v>
+        <v>0.09228866403276599</v>
       </c>
       <c r="T7">
-        <v>0.09691779631470714</v>
+        <v>0.092288664032766</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>220.645635107565</v>
+        <v>221.6758116666666</v>
       </c>
       <c r="H8">
-        <v>220.645635107565</v>
+        <v>665.027435</v>
       </c>
       <c r="I8">
-        <v>0.3522827807903891</v>
+        <v>0.3351073399036296</v>
       </c>
       <c r="J8">
-        <v>0.3522827807903891</v>
+        <v>0.3351073399036297</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>38073.51344543281</v>
+        <v>38252.04488245506</v>
       </c>
       <c r="R8">
-        <v>38073.51344543281</v>
+        <v>344268.4039420955</v>
       </c>
       <c r="S8">
-        <v>0.1031633306598636</v>
+        <v>0.09727567058213138</v>
       </c>
       <c r="T8">
-        <v>0.1031633306598636</v>
+        <v>0.09727567058213141</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>220.645635107565</v>
+        <v>221.6758116666666</v>
       </c>
       <c r="H9">
-        <v>220.645635107565</v>
+        <v>665.027435</v>
       </c>
       <c r="I9">
-        <v>0.3522827807903891</v>
+        <v>0.3351073399036296</v>
       </c>
       <c r="J9">
-        <v>0.3522827807903891</v>
+        <v>0.3351073399036297</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>24550.75241887497</v>
+        <v>24714.22931981838</v>
       </c>
       <c r="R9">
-        <v>24550.75241887497</v>
+        <v>222428.0638783654</v>
       </c>
       <c r="S9">
-        <v>0.06652229228507578</v>
+        <v>0.0628487506326383</v>
       </c>
       <c r="T9">
-        <v>0.06652229228507578</v>
+        <v>0.06284875063263831</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>220.645635107565</v>
+        <v>221.6758116666666</v>
       </c>
       <c r="H10">
-        <v>220.645635107565</v>
+        <v>665.027435</v>
       </c>
       <c r="I10">
-        <v>0.3522827807903891</v>
+        <v>0.3351073399036296</v>
       </c>
       <c r="J10">
-        <v>0.3522827807903891</v>
+        <v>0.3351073399036297</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>19036.12482991903</v>
+        <v>19276.48131463733</v>
       </c>
       <c r="R10">
-        <v>19036.12482991903</v>
+        <v>173488.3318317359</v>
       </c>
       <c r="S10">
-        <v>0.05157995316418458</v>
+        <v>0.0490204550399169</v>
       </c>
       <c r="T10">
-        <v>0.05157995316418458</v>
+        <v>0.04902045503991691</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>220.645635107565</v>
+        <v>221.6758116666666</v>
       </c>
       <c r="H11">
-        <v>220.645635107565</v>
+        <v>665.027435</v>
       </c>
       <c r="I11">
-        <v>0.3522827807903891</v>
+        <v>0.3351073399036296</v>
       </c>
       <c r="J11">
-        <v>0.3522827807903891</v>
+        <v>0.3351073399036297</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>12584.74570975204</v>
+        <v>13241.66347630824</v>
       </c>
       <c r="R11">
-        <v>12584.74570975204</v>
+        <v>119174.9712867741</v>
       </c>
       <c r="S11">
-        <v>0.03409940836655799</v>
+        <v>0.03367379961617701</v>
       </c>
       <c r="T11">
-        <v>0.03409940836655799</v>
+        <v>0.03367379961617701</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>128.667222828514</v>
+        <v>131.496086</v>
       </c>
       <c r="H12">
-        <v>128.667222828514</v>
+        <v>394.488258</v>
       </c>
       <c r="I12">
-        <v>0.2054300645127581</v>
+        <v>0.1987826423455699</v>
       </c>
       <c r="J12">
-        <v>0.2054300645127581</v>
+        <v>0.1987826423455699</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>20858.05066318363</v>
+        <v>21527.48530262274</v>
       </c>
       <c r="R12">
-        <v>20858.05066318363</v>
+        <v>193747.3677236046</v>
       </c>
       <c r="S12">
-        <v>0.05651661175347406</v>
+        <v>0.05474480057718688</v>
       </c>
       <c r="T12">
-        <v>0.05651661175347406</v>
+        <v>0.05474480057718688</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>128.667222828514</v>
+        <v>131.496086</v>
       </c>
       <c r="H13">
-        <v>128.667222828514</v>
+        <v>394.488258</v>
       </c>
       <c r="I13">
-        <v>0.2054300645127581</v>
+        <v>0.1987826423455699</v>
       </c>
       <c r="J13">
-        <v>0.2054300645127581</v>
+        <v>0.1987826423455699</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>22202.17606371298</v>
+        <v>22690.76696154274</v>
       </c>
       <c r="R13">
-        <v>22202.17606371298</v>
+        <v>204216.9026538846</v>
       </c>
       <c r="S13">
-        <v>0.06015863059005622</v>
+        <v>0.05770304774528114</v>
       </c>
       <c r="T13">
-        <v>0.06015863059005622</v>
+        <v>0.05770304774528116</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>128.667222828514</v>
+        <v>131.496086</v>
       </c>
       <c r="H14">
-        <v>128.667222828514</v>
+        <v>394.488258</v>
       </c>
       <c r="I14">
-        <v>0.2054300645127581</v>
+        <v>0.1987826423455699</v>
       </c>
       <c r="J14">
-        <v>0.2054300645127581</v>
+        <v>0.1987826423455699</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>14316.51766211966</v>
+        <v>14660.25724515813</v>
       </c>
       <c r="R14">
-        <v>14316.51766211966</v>
+        <v>131942.3152064232</v>
       </c>
       <c r="S14">
-        <v>0.03879178756622467</v>
+        <v>0.03728131028841822</v>
       </c>
       <c r="T14">
-        <v>0.03879178756622467</v>
+        <v>0.03728131028841822</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>128.667222828514</v>
+        <v>131.496086</v>
       </c>
       <c r="H15">
-        <v>128.667222828514</v>
+        <v>394.488258</v>
       </c>
       <c r="I15">
-        <v>0.2054300645127581</v>
+        <v>0.1987826423455699</v>
       </c>
       <c r="J15">
-        <v>0.2054300645127581</v>
+        <v>0.1987826423455699</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>11100.71955009919</v>
+        <v>11434.63432329048</v>
       </c>
       <c r="R15">
-        <v>11100.71955009919</v>
+        <v>102911.7089096143</v>
       </c>
       <c r="S15">
-        <v>0.03007831686325941</v>
+        <v>0.02907849044613346</v>
       </c>
       <c r="T15">
-        <v>0.03007831686325941</v>
+        <v>0.02907849044613346</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>128.667222828514</v>
+        <v>131.496086</v>
       </c>
       <c r="H16">
-        <v>128.667222828514</v>
+        <v>394.488258</v>
       </c>
       <c r="I16">
-        <v>0.2054300645127581</v>
+        <v>0.1987826423455699</v>
       </c>
       <c r="J16">
-        <v>0.2054300645127581</v>
+        <v>0.1987826423455699</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>7338.664459360224</v>
+        <v>7854.834978035246</v>
       </c>
       <c r="R16">
-        <v>7338.664459360224</v>
+        <v>70693.51480231721</v>
       </c>
       <c r="S16">
-        <v>0.01988471773974369</v>
+        <v>0.01997499328855017</v>
       </c>
       <c r="T16">
-        <v>0.01988471773974369</v>
+        <v>0.01997499328855017</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>194.376681109061</v>
+        <v>224.0923716666667</v>
       </c>
       <c r="H17">
-        <v>194.376681109061</v>
+        <v>672.277115</v>
       </c>
       <c r="I17">
-        <v>0.3103417736250472</v>
+        <v>0.3387604538235877</v>
       </c>
       <c r="J17">
-        <v>0.3103417736250472</v>
+        <v>0.3387604538235878</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>31510.11246833101</v>
+        <v>36686.60706360521</v>
       </c>
       <c r="R17">
-        <v>31510.11246833101</v>
+        <v>330179.4635724469</v>
       </c>
       <c r="S17">
-        <v>0.08537925338460892</v>
+        <v>0.09329473272505243</v>
       </c>
       <c r="T17">
-        <v>0.08537925338460892</v>
+        <v>0.09329473272505245</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>194.376681109061</v>
+        <v>224.0923716666667</v>
       </c>
       <c r="H18">
-        <v>194.376681109061</v>
+        <v>672.277115</v>
       </c>
       <c r="I18">
-        <v>0.3103417736250472</v>
+        <v>0.3387604538235877</v>
       </c>
       <c r="J18">
-        <v>0.3103417736250472</v>
+        <v>0.3387604538235878</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>33540.67338824373</v>
+        <v>38669.04284396538</v>
       </c>
       <c r="R18">
-        <v>33540.67338824373</v>
+        <v>348021.3855956884</v>
       </c>
       <c r="S18">
-        <v>0.09088122598049711</v>
+        <v>0.09833610425206842</v>
       </c>
       <c r="T18">
-        <v>0.09088122598049711</v>
+        <v>0.09833610425206843</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>194.376681109061</v>
+        <v>224.0923716666667</v>
       </c>
       <c r="H19">
-        <v>194.376681109061</v>
+        <v>672.277115</v>
       </c>
       <c r="I19">
-        <v>0.3103417736250472</v>
+        <v>0.3387604538235877</v>
       </c>
       <c r="J19">
-        <v>0.3103417736250472</v>
+        <v>0.3387604538235878</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>21627.86393478741</v>
+        <v>24983.64715821974</v>
       </c>
       <c r="R19">
-        <v>21627.86393478741</v>
+        <v>224852.8244239777</v>
       </c>
       <c r="S19">
-        <v>0.05860248442184839</v>
+        <v>0.06353388526995807</v>
       </c>
       <c r="T19">
-        <v>0.05860248442184839</v>
+        <v>0.06353388526995808</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>194.376681109061</v>
+        <v>224.0923716666667</v>
       </c>
       <c r="H20">
-        <v>194.376681109061</v>
+        <v>672.277115</v>
       </c>
       <c r="I20">
-        <v>0.3103417736250472</v>
+        <v>0.3387604538235877</v>
       </c>
       <c r="J20">
-        <v>0.3103417736250472</v>
+        <v>0.3387604538235878</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>16769.78003128685</v>
+        <v>19486.62049642477</v>
       </c>
       <c r="R20">
-        <v>16769.78003128685</v>
+        <v>175379.5844678229</v>
       </c>
       <c r="S20">
-        <v>0.04543910466630056</v>
+        <v>0.04955484293700235</v>
       </c>
       <c r="T20">
-        <v>0.04543910466630056</v>
+        <v>0.04955484293700236</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>194.376681109061</v>
+        <v>224.0923716666667</v>
       </c>
       <c r="H21">
-        <v>194.376681109061</v>
+        <v>672.277115</v>
       </c>
       <c r="I21">
-        <v>0.3103417736250472</v>
+        <v>0.3387604538235877</v>
       </c>
       <c r="J21">
-        <v>0.3103417736250472</v>
+        <v>0.3387604538235878</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N21">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q21">
-        <v>11086.46949879874</v>
+        <v>13386.01514936504</v>
       </c>
       <c r="R21">
-        <v>11086.46949879874</v>
+        <v>120474.1363442853</v>
       </c>
       <c r="S21">
-        <v>0.03003970517179217</v>
+        <v>0.0340408886395064</v>
       </c>
       <c r="T21">
-        <v>0.03003970517179217</v>
+        <v>0.03404088863950641</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.72216854612275</v>
+        <v>6.353234333333333</v>
       </c>
       <c r="H22">
-        <v>5.72216854612275</v>
+        <v>19.059703</v>
       </c>
       <c r="I22">
-        <v>0.00913601325762327</v>
+        <v>0.009604184783268722</v>
       </c>
       <c r="J22">
-        <v>0.00913601325762327</v>
+        <v>0.009604184783268722</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N22">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q22">
-        <v>927.6121673767424</v>
+        <v>1040.100605997896</v>
       </c>
       <c r="R22">
-        <v>927.6121673767424</v>
+        <v>9360.905453981068</v>
       </c>
       <c r="S22">
-        <v>0.002513441815249099</v>
+        <v>0.002644995430498746</v>
       </c>
       <c r="T22">
-        <v>0.002513441815249099</v>
+        <v>0.002644995430498746</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.72216854612275</v>
+        <v>6.353234333333333</v>
       </c>
       <c r="H23">
-        <v>5.72216854612275</v>
+        <v>19.059703</v>
       </c>
       <c r="I23">
-        <v>0.00913601325762327</v>
+        <v>0.009604184783268722</v>
       </c>
       <c r="J23">
-        <v>0.00913601325762327</v>
+        <v>0.009604184783268722</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N23">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q23">
-        <v>987.388945952313</v>
+        <v>1096.304567648797</v>
       </c>
       <c r="R23">
-        <v>987.388945952313</v>
+        <v>9866.741108839171</v>
       </c>
       <c r="S23">
-        <v>0.002675411936099944</v>
+        <v>0.002787923163532737</v>
       </c>
       <c r="T23">
-        <v>0.002675411936099944</v>
+        <v>0.002787923163532737</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.72216854612275</v>
+        <v>6.353234333333333</v>
       </c>
       <c r="H24">
-        <v>5.72216854612275</v>
+        <v>19.059703</v>
       </c>
       <c r="I24">
-        <v>0.00913601325762327</v>
+        <v>0.009604184783268722</v>
       </c>
       <c r="J24">
-        <v>0.00913601325762327</v>
+        <v>0.009604184783268722</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N24">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q24">
-        <v>636.6930540295866</v>
+        <v>708.310433402842</v>
       </c>
       <c r="R24">
-        <v>636.6930540295866</v>
+        <v>6374.793900625578</v>
       </c>
       <c r="S24">
-        <v>0.001725172439255717</v>
+        <v>0.001801246772592394</v>
       </c>
       <c r="T24">
-        <v>0.001725172439255717</v>
+        <v>0.001801246772592394</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.72216854612275</v>
+        <v>6.353234333333333</v>
       </c>
       <c r="H25">
-        <v>5.72216854612275</v>
+        <v>19.059703</v>
       </c>
       <c r="I25">
-        <v>0.00913601325762327</v>
+        <v>0.009604184783268722</v>
       </c>
       <c r="J25">
-        <v>0.00913601325762327</v>
+        <v>0.009604184783268722</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N25">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q25">
-        <v>493.6780856268761</v>
+        <v>552.4644389175268</v>
       </c>
       <c r="R25">
-        <v>493.6780856268761</v>
+        <v>4972.179950257741</v>
       </c>
       <c r="S25">
-        <v>0.001337661565173025</v>
+        <v>0.001404927473384116</v>
       </c>
       <c r="T25">
-        <v>0.001337661565173025</v>
+        <v>0.001404927473384116</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.72216854612275</v>
+        <v>6.353234333333333</v>
       </c>
       <c r="H26">
-        <v>5.72216854612275</v>
+        <v>19.059703</v>
       </c>
       <c r="I26">
-        <v>0.00913601325762327</v>
+        <v>0.009604184783268722</v>
       </c>
       <c r="J26">
-        <v>0.00913601325762327</v>
+        <v>0.009604184783268722</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N26">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q26">
-        <v>326.3696380224807</v>
+        <v>379.5064080091411</v>
       </c>
       <c r="R26">
-        <v>326.3696380224807</v>
+        <v>3415.557672082269</v>
       </c>
       <c r="S26">
-        <v>0.0008843255018454845</v>
+        <v>0.0009650919432607284</v>
       </c>
       <c r="T26">
-        <v>0.0008843255018454845</v>
+        <v>0.0009650919432607284</v>
       </c>
     </row>
   </sheetData>
